--- a/medicine/Handicap/IDDEES/IDDEES.xlsx
+++ b/medicine/Handicap/IDDEES/IDDEES.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>IDDEES est un programme d'intervention et de suivi destiné aux personnes atteintes d'autisme. L'acronyme IDDEES signifie : « Intervention - Développement - Domicile - École - Entreprise - Supervision ».
-Le programme IDDEES a été officiellement créé en 2000 par Maria Pilar Gattegno, psychologue et Docteur en psychologie[1] et Nathalie Abenhaim, psychologue. Il se définit comme un programme d'intervention développemental et comportemental pour personnes avec un trouble du spectre de l'autisme (TSA). Le programme IDDEES  prend en compte : le développement de la personne, le style cognitif particulier, la capacité de régulation des activités et des comportements.
+Le programme IDDEES a été officiellement créé en 2000 par Maria Pilar Gattegno, psychologue et Docteur en psychologie et Nathalie Abenhaim, psychologue. Il se définit comme un programme d'intervention développemental et comportemental pour personnes avec un trouble du spectre de l'autisme (TSA). Le programme IDDEES  prend en compte : le développement de la personne, le style cognitif particulier, la capacité de régulation des activités et des comportements.
 L'intervention est basée sur l'accompagnement individualisé de la personne avec autisme, sous la supervision d'un psychologue spécialisé qui applique les modalités de l'intervention éducative et comportementale selon diverses approches : TEACCH et ABA en milieu écologique, naturel. 
 Le programme IDDEES est proposé à Paris et île de France, Bordeaux, Chartres, La Seine sur Mer, Marseille, Nervers, Nuit-Saint-Georges, Orléans, Pont-Saint-Maxence, Sète, Rennes.   
 L'intervention auprès des personnes avec autisme  comprend trois aspects et objectifs principaux : la régulation, la modifiabilité, le développement (RMD)
@@ -520,7 +532,9 @@
           <t>Modèles théoriques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le programme I.D.D.E.E.S s’appuie sur trois modèles théoriques et pratiques :
 le premier est celui de la psychopathologie du développement, modèle qui fait référence au développement normal et pathologique de l’enfant (Rogé, 2003). La référence au développement normal permet d’appliquer et d’adapter le projet à chaque individu en fonction de ses niveaux de compétences. La référence à la psychopathologie du développement permet au praticien de prendre en compte des aspects évolutifs du syndrome autistique, et de tenir compte des dysfonctionnements particuliers des enfants autistes tels que les troubles de l’imitation, du langage, de la communication, de l’attention conjointe, du jeu symbolique et de la théorie de l’esprit. Des travaux récents ont en effet permis de mettre en évidence des anomalies particulières et spécifiques qu’il s’agit de rééduquer au quotidien par des prises en charge adaptées (Adrien, 1996 ; Gattegno et al., 1999a, 1999b).
